--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,29</t>
+          <t>5,26; 10,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,99</t>
+          <t>4,67; 9,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,07</t>
+          <t>5,52; 9,21</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,7</t>
+          <t>1,51; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,2</t>
+          <t>1,73; 4,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,98</t>
+          <t>1,94; 3,94</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,83</t>
+          <t>2,46; 6,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,61</t>
+          <t>3,17; 6,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,92</t>
+          <t>3,24; 5,86</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,98</t>
+          <t>1,08; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,64</t>
+          <t>0,71; 2,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,14</t>
+          <t>1,14; 3,35</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,95</t>
+          <t>7,68; 15,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,9</t>
+          <t>8,73; 14,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,6</t>
+          <t>9,03; 14,14</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,5</t>
+          <t>0,4; 2,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,45</t>
+          <t>0,21; 1,53</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,14</t>
+          <t>4,91; 9,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,08</t>
+          <t>3,84; 8,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,66</t>
+          <t>4,64; 7,73</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,86</t>
+          <t>2,23; 4,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,7</t>
+          <t>1,84; 3,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,89</t>
+          <t>2,25; 3,92</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,28</t>
+          <t>3,88; 5,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,61</t>
+          <t>3,47; 4,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,72</t>
+          <t>3,82; 4,74</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 10,98</t>
+          <t>5,25; 11,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,37</t>
+          <t>4,56; 8,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,21</t>
+          <t>5,43; 9,07</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,97</t>
+          <t>1,54; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,73; 4,33</t>
+          <t>1,79; 4,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,94; 3,94</t>
+          <t>1,93; 3,98</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,61</t>
+          <t>2,54; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,66</t>
+          <t>3,06; 6,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,24; 5,86</t>
+          <t>3,23; 5,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,51</t>
+          <t>1,08; 4,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,55</t>
+          <t>0,7; 2,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,35</t>
+          <t>1,11; 3,14</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,68; 15,95</t>
+          <t>7,8; 15,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,73; 14,24</t>
+          <t>8,39; 13,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,14</t>
+          <t>8,85; 13,6</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,61</t>
+          <t>0,38; 2,5</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,53</t>
+          <t>0,26; 1,45</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,91; 9,0</t>
+          <t>4,79; 9,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 8,08</t>
+          <t>3,45; 8,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 7,73</t>
+          <t>4,69; 7,66</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,23; 4,84</t>
+          <t>2,18; 4,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,84; 3,88</t>
+          <t>1,85; 3,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,92</t>
+          <t>2,28; 3,89</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,88; 5,25</t>
+          <t>3,84; 5,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,47; 4,63</t>
+          <t>3,44; 4,61</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,82; 4,74</t>
+          <t>3,8; 4,72</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,11%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 11,29</t>
+          <t>4,8; 10,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,56; 8,99</t>
+          <t>4,39; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,43; 9,07</t>
+          <t>5,08; 8,63</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>2,76%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,7</t>
+          <t>1,5; 4,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,2</t>
+          <t>1,8; 4,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 3,98</t>
+          <t>1,89; 3,91</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,4%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 6,83</t>
+          <t>2,53; 6,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 6,61</t>
+          <t>3,04; 6,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 5,92</t>
+          <t>3,2; 5,86</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,72%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,98</t>
+          <t>1,03; 4,74</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,64</t>
+          <t>0,53; 2,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,14</t>
+          <t>0,91; 2,74</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,18%</t>
+          <t>11,29%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 15,95</t>
+          <t>7,85; 15,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,39; 13,9</t>
+          <t>8,51; 14,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,85; 13,6</t>
+          <t>8,95; 13,7</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,5</t>
+          <t>0,37; 2,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,66</t>
+          <t>0,0; 0,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,45</t>
+          <t>0,26; 1,48</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,71%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,82%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 9,14</t>
+          <t>4,7; 9,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,45; 8,08</t>
+          <t>2,15; 7,69</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,66</t>
+          <t>3,57; 7,3</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,18; 4,86</t>
+          <t>0,94; 4,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 3,7</t>
+          <t>1,89; 3,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 3,89</t>
+          <t>1,51; 3,54</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
+          <t>3,88%</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>4,03%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,28</t>
+          <t>3,24; 4,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,61</t>
+          <t>3,12; 4,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,8; 4,72</t>
+          <t>3,42; 4,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C11_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 10,55</t>
+          <t>4,53; 9,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,39; 8,86</t>
+          <t>4,51; 9,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,63</t>
+          <t>5,09; 8,57</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,52</t>
+          <t>1,42; 4,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 4,21</t>
+          <t>1,77; 4,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,91</t>
+          <t>1,89; 3,96</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,75</t>
+          <t>2,41; 6,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,59</t>
+          <t>2,95; 6,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,2; 5,86</t>
+          <t>3,23; 5,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 4,74</t>
+          <t>1,23; 5,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,36</t>
+          <t>0,51; 2,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,74</t>
+          <t>0,97; 2,83</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,85; 15,94</t>
+          <t>8,12; 16,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 14,08</t>
+          <t>8,8; 14,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,95; 13,7</t>
+          <t>9,09; 13,73</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,46</t>
+          <t>0,39; 2,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,67</t>
+          <t>0,0; 0,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,26; 1,48</t>
+          <t>0,25; 1,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,0</t>
+          <t>4,74; 8,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,15; 7,69</t>
+          <t>2,3; 7,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,3</t>
+          <t>3,58; 7,47</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,1</t>
+          <t>0,92; 4,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,75</t>
+          <t>1,9; 3,87</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,54</t>
+          <t>1,61; 3,53</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,94</t>
+          <t>3,32; 5,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,46</t>
+          <t>3,18; 4,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,42; 4,55</t>
+          <t>3,41; 4,54</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue por implantes / solo 2023</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>21559</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>18317</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39876</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13829; 30426</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>12974; 26701</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>30199; 50851</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13970</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13897</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>27867</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7212; 23650</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>8894; 20996</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>19017; 39976</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12519</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15212</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>27732</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7271; 19301</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9887; 21981</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>20553; 37705</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>7742</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5722</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>13464</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3807; 16805</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2424; 10937</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>7579; 22149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18876</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>22976</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>41853</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>13683; 27374</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>17798; 28988</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33683; 50900</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2855</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3214</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>996; 6782</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2057</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1226; 6836</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>39631</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>43479</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>83110</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>28438; 53820</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>19019; 63551</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>51182; 106681</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>23522</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>18949</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>42471</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>8340; 36927</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>13355; 27271</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>25999; 56999</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>140674</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>138912</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>279587</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>111338; 168678</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>113688; 160699</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>236545; 314939</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>